--- a/testData/nopCommereceData.xlsx
+++ b/testData/nopCommereceData.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CapstoneProject\nopCommerceProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A4A532F-A705-4233-8C5D-B0AB8C092310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -44,29 +56,29 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Heena</t>
-  </si>
-  <si>
-    <t>Mulani</t>
-  </si>
-  <si>
-    <t>heena@gmail.com</t>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Abhi</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>ram001@gmail.com</t>
   </si>
   <si>
     <t>nopCommerce</t>
   </si>
   <si>
-    <t>Heena@2002</t>
+    <t>ram1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,22 +406,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="6" width="18.44140625" customWidth="1"/>
+    <col min="5" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -451,8 +463,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
